--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvinpahling/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvinpahling/Desktop/task/Time-Management-Analysis-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678771E1-D7AD-3840-A04D-F30FBAEEC733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714753B-C07B-A644-AF83-9E9AE97FB617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="11">
   <si>
     <t>Table 1</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Uni</t>
-  </si>
-  <si>
-    <t>Sport</t>
   </si>
   <si>
     <t>Freizeit</t>
@@ -1406,10 +1403,10 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="138" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1747,13 +1744,13 @@
         <v>45311.229166666664</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>8</v>
@@ -1773,13 +1770,13 @@
         <v>45311.25</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>8</v>
@@ -1799,13 +1796,13 @@
         <v>45311.270833333336</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>8</v>
@@ -1854,16 +1851,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>8</v>
@@ -1880,16 +1877,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>8</v>
@@ -1906,22 +1903,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1944,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -1970,10 +1967,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -1996,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2022,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2051,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2103,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>9</v>
@@ -2126,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2140,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>9</v>
@@ -2152,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2166,10 +2163,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>9</v>
@@ -2178,10 +2175,10 @@
         <v>9</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2192,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>9</v>
@@ -2204,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2218,10 +2215,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>9</v>
@@ -2230,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2244,22 +2241,22 @@
         <v>9</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2270,22 +2267,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2296,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>9</v>
@@ -2308,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2322,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>9</v>
@@ -2334,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2348,22 +2345,22 @@
         <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2371,25 +2368,25 @@
         <v>45311.729166666664</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2400,22 +2397,22 @@
         <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2426,22 +2423,22 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2449,25 +2446,25 @@
         <v>45311.791666666664</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2475,25 +2472,25 @@
         <v>45311.8125</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2501,25 +2498,25 @@
         <v>45311.833333333336</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2527,25 +2524,25 @@
         <v>45311.854166666664</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2553,25 +2550,25 @@
         <v>45311.875</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2579,25 +2576,25 @@
         <v>45311.895833333336</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2605,25 +2602,25 @@
         <v>45311.916666666664</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -2631,7 +2628,7 @@
         <v>45311.9375</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>8</v>
@@ -2640,16 +2637,16 @@
         <v>9</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,16 +2663,16 @@
         <v>8</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
